--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing Projects\BStackDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF1773B-5080-4384-BA21-88F7E1B91A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD12E8A-3AF1-4D09-A7A4-30A9D2799434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Project Name</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Validating the working of Home Page</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -216,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +599,12 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -598,6 +616,12 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -609,6 +633,12 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -620,6 +650,12 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -631,6 +667,12 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -642,8 +684,14 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -653,8 +701,14 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -664,8 +718,14 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -675,8 +735,14 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -686,8 +752,14 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
